--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,33 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
-    <t>7260-К-12</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 7260-К-12 Экобордюр Контур пластиковый 1000х60 мм 12 шт</t>
-  </si>
-  <si>
-    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
+    <t>Бордюр Anmaks садовый бордюр 7245 100 см 4.5 см черный</t>
   </si>
   <si>
     <t>82401-Ч</t>
   </si>
   <si>
     <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
-  </si>
-  <si>
-    <t>82402-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
-  </si>
-  <si>
-    <t>ANM.49*99</t>
-  </si>
-  <si>
-    <t>Решетка придверная грязезащитная ANMAKS сталь 49х99 cм</t>
   </si>
 </sst>
 </file>
@@ -380,7 +362,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,78 +371,36 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>7245</v>
+      </c>
+      <c r="C1">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>206</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2450</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
-        <v>7260</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>219</v>
+        <v>690</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>690</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1150</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4900</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,15 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>Бордюр Anmaks садовый бордюр 7245 100 см 4.5 см черный</t>
+    <t>82402-Ч</t>
   </si>
   <si>
-    <t>82401-Ч</t>
+    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
   </si>
   <si>
-    <t>Садовый бордюр Anmaks 82401-Ч Кантри черный 10000х110 мм</t>
+    <t>7260-К-12</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 7260-К-12 Экобордюр Контур пластиковый 1000х60 мм 12 шт</t>
   </si>
 </sst>
 </file>
@@ -371,36 +374,36 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1">
-        <v>7245</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>206</v>
+        <v>1150</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>690</v>
+        <v>2450</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,18 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>82402-Ч</t>
+    <t>508А-10</t>
   </si>
   <si>
-    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
-  </si>
-  <si>
-    <t>7260-К-12</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 7260-К-12 Экобордюр Контур пластиковый 1000х60 мм 12 шт</t>
+    <t>Решетка водоприемная ANMAKS DN100 щелевая стальная оцинкованная, 1000х136 мм. Комплект - 10 штук</t>
   </si>
 </sst>
 </file>
@@ -365,7 +359,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,29 +375,15 @@
         <v>2</v>
       </c>
       <c r="D1">
-        <v>1150</v>
+        <v>7250</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="4" spans="1:5">
+      <c r="C4">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>2450</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,12 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>508А-10</t>
+    <t>82400-К</t>
   </si>
   <si>
-    <t>Решетка водоприемная ANMAKS DN100 щелевая стальная оцинкованная, 1000х136 мм. Комплект - 10 штук</t>
+    <t>Садовый бордюр Anmaks 82400-К Кантри MINI пластиковый коричневый 10000х80 мм</t>
+  </si>
+  <si>
+    <t>1840-30</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
   </si>
 </sst>
 </file>
@@ -359,7 +365,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -372,17 +378,31 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>7250</v>
+        <v>600</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="C4">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>690</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5">
         <v>2</v>
       </c>
     </row>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,18 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
-  <si>
-    <t>82400-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82400-К Кантри MINI пластиковый коричневый 10000х80 мм</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>82402-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
+  </si>
+  <si>
+    <t>7245-К-16</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 7245-К-16 Экобордюр Контур пластиковый 1000х45 мм 16 шт</t>
   </si>
   <si>
     <t>1840-30</t>
   </si>
   <si>
     <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
+  </si>
+  <si>
+    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
+  </si>
+  <si>
+    <t>7260-К-12</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 7260-К-12 Экобордюр Контур пластиковый 1000х60 мм 12 шт</t>
+  </si>
+  <si>
+    <t>82400-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
   </si>
 </sst>
 </file>
@@ -365,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <v>600</v>
+        <v>1150</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -392,18 +413,74 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>690</v>
+        <v>2750</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>690</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>7260</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>219</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
       <c r="C5">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2450</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>550</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,39 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>82402-Ч</t>
   </si>
   <si>
     <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
-  </si>
-  <si>
-    <t>7245-К-16</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 7245-К-16 Экобордюр Контур пластиковый 1000х45 мм 16 шт</t>
-  </si>
-  <si>
-    <t>1840-30</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
-  </si>
-  <si>
-    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
-  </si>
-  <si>
-    <t>7260-К-12</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 7260-К-12 Экобордюр Контур пластиковый 1000х60 мм 12 шт</t>
-  </si>
-  <si>
-    <t>82400-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
   </si>
 </sst>
 </file>
@@ -386,7 +359,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,79 +381,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>2750</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>690</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="4" spans="1:5">
-      <c r="A4">
-        <v>7260</v>
-      </c>
       <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <v>219</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>2450</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>550</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9">
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,12 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>82402-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+  <si>
+    <t>7245-К-16</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 7245-К-16 Экобордюр Контур пластиковый 1000х45 мм 16 шт</t>
+  </si>
+  <si>
+    <t>7260-К-12</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 7260-К-12 Экобордюр Контур пластиковый 1000х60 мм 12 шт</t>
+  </si>
+  <si>
+    <t>1840-30</t>
+  </si>
+  <si>
+    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
+  </si>
+  <si>
+    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
   </si>
 </sst>
 </file>
@@ -359,7 +374,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -372,18 +387,60 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1">
-        <v>1150</v>
+        <v>2750</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2450</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>690</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="4" spans="1:5">
+      <c r="A4">
+        <v>7260</v>
+      </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>219</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,27 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>7245-К-16</t>
+    <t>ANM.49*99</t>
   </si>
   <si>
-    <t>Садовый бордюр Anmaks 7245-К-16 Экобордюр Контур пластиковый 1000х45 мм 16 шт</t>
-  </si>
-  <si>
-    <t>7260-К-12</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 7260-К-12 Экобордюр Контур пластиковый 1000х60 мм 12 шт</t>
-  </si>
-  <si>
-    <t>1840-30</t>
-  </si>
-  <si>
-    <t>Крепящий якорь Anmaks 1840-30 универсальный. Пластик. 30 штук</t>
-  </si>
-  <si>
-    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
+    <t>Решетка придверная грязезащитная ANMAKS сталь 49х99 cм</t>
   </si>
 </sst>
 </file>
@@ -374,7 +359,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,60 +372,18 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>2750</v>
+        <v>4900</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+    <row r="4" spans="1:5">
+      <c r="C4">
         <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2450</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>690</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>7260</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>219</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="C7">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
-    <t>ANM.49*99</t>
+    <t>Бордюр Anmaks садовый бордюр 7245 100 см 4.5 см черный</t>
   </si>
   <si>
-    <t>Решетка придверная грязезащитная ANMAKS сталь 49х99 cм</t>
+    <t>7245-К-16</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 7245-К-16 Экобордюр Контур пластиковый 1000х45 мм 16 шт</t>
   </si>
 </sst>
 </file>
@@ -359,7 +362,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,22 +371,36 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>7245</v>
+      </c>
+      <c r="C1">
+        <v>15</v>
+      </c>
+      <c r="D1">
+        <v>206</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
-        <v>4900</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>2750</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="C4">
-        <v>1</v>
+    <row r="5" spans="1:5">
+      <c r="C5">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,15 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>Бордюр Anmaks садовый бордюр 7245 100 см 4.5 см черный</t>
-  </si>
-  <si>
-    <t>7245-К-16</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 7245-К-16 Экобордюр Контур пластиковый 1000х45 мм 16 шт</t>
+    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
   </si>
 </sst>
 </file>
@@ -362,7 +356,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -372,35 +366,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>7245</v>
+        <v>7260</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2750</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5">
-        <v>16</v>
+    <row r="4" spans="1:5">
+      <c r="C4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>Бордюр Anmaks садовый бордюр 7260 100 см 6 см черный</t>
+    <t>82400-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82400-К Кантри MINI пластиковый коричневый 10000х80 мм</t>
   </si>
 </sst>
 </file>
@@ -365,22 +368,22 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1">
-        <v>7260</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>219</v>
+        <v>600</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="C4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,12 +15,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>82400-Ч</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82400-Ч Кантри MINI пластиковый черный 10000х80 мм</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+  <si>
+    <t>82402-Ч</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
+  </si>
+  <si>
+    <t>82402-К</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-К Кантри MAXI коричневый 10000х140 мм</t>
+  </si>
+  <si>
+    <t>82402-З</t>
+  </si>
+  <si>
+    <t>Садовый бордюр Anmaks 82402-З Кантри MAXI зеленый 10000х140 мм</t>
   </si>
 </sst>
 </file>
@@ -359,7 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,15 +387,43 @@
         <v>2</v>
       </c>
       <c r="D1">
-        <v>550</v>
+        <v>1150</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="C4">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1250</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1250</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -15,24 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>82402-Ч</t>
   </si>
   <si>
     <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
-  </si>
-  <si>
-    <t>82402-К</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-К Кантри MAXI коричневый 10000х140 мм</t>
-  </si>
-  <si>
-    <t>82402-З</t>
-  </si>
-  <si>
-    <t>Садовый бордюр Anmaks 82402-З Кантри MAXI зеленый 10000х140 мм</t>
   </si>
 </sst>
 </file>
@@ -371,7 +359,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,7 +372,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>1150</v>
@@ -393,37 +381,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+    <row r="4" spans="1:5">
+      <c r="C4">
         <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1250</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1250</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -17,10 +17,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>82402-Ч</t>
+    <t>82402-К</t>
   </si>
   <si>
-    <t>Садовый бордюр Anmaks 82402-Ч Кантри MAXI черный 10000х140 мм</t>
+    <t>Садовый бордюр Anmaks 82402-К Кантри MAXI коричневый 10000х140 мм</t>
   </si>
 </sst>
 </file>
@@ -372,10 +372,10 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D1">
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -383,7 +383,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="C4">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/leroy/__11list_tovarov_1C(7777).xlsx
+++ b/leroy/__11list_tovarov_1C(7777).xlsx
@@ -17,10 +17,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>82402-К</t>
+    <t>82401-К</t>
   </si>
   <si>
-    <t>Садовый бордюр Anmaks 82402-К Кантри MAXI коричневый 10000х140 мм</t>
+    <t>Садовый бордюр Anmaks 82401-К Кантри коричневый 10000х110 мм</t>
   </si>
 </sst>
 </file>
@@ -372,10 +372,10 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1">
-        <v>1250</v>
+        <v>745</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -383,7 +383,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="C4">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
